--- a/lesson16-teemy.xlsx
+++ b/lesson16-teemy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Du\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java13\3.Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B4F517-0A4D-4114-A075-C1A6A39B9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDAA06-EE48-49D1-AE87-75E2CCD7BB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="10320" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Admin</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>NameAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -648,7 +651,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
         <v>16</v>
